--- a/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
+++ b/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BSfVBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D16806-131B-4A2F-BC1B-5BA65B276163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{91D16806-131B-4A2F-BC1B-5BA65B276163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC7A3FE-FC95-465A-87EF-926266C9D8D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BSfVBP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,46 +37,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>BSfVBP BAU Subsidy for Vehicle Battery Production</t>
+  </si>
   <si>
     <t>Sources:</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>In the EU only very specific projects receive funding (e.g. via Projects of Common Interest) but there is no general financial support for any battery production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is why no financial support is used here. </t>
   </si>
   <si>
     <t>$/kWh</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>BSfVBP BAU Subsidy for Vehicle Battery Production</t>
-  </si>
-  <si>
-    <t>2022 to 2012 USD</t>
-  </si>
-  <si>
-    <t>In the US, the Inflation Reduction Act includes a credit of $35/kWh for battery cells and $10/kWh for assembly for onroad vehicle</t>
-  </si>
-  <si>
-    <t>batteries.</t>
-  </si>
-  <si>
-    <t>United States Congress</t>
-  </si>
-  <si>
-    <t>H.R. 5376 - Inflation Reduction Act of 2022</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/house-bill/5376/text</t>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,65 +424,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="101.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2022</v>
-      </c>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:2">
+      <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -504,15 +481,15 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -605,9 +582,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -616,44 +593,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -713,4 +680,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F78047-56C4-4145-BE78-58B89A2E831D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90CB730-96E0-436E-BD64-7F6A977FFC04}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9C1DF3-B8A0-49B2-B14F-BDA1627008AF}"/>
 </file>
--- a/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
+++ b/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BSfVBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{91D16806-131B-4A2F-BC1B-5BA65B276163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC7A3FE-FC95-465A-87EF-926266C9D8D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D16806-131B-4A2F-BC1B-5BA65B276163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BSfVBP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,37 +34,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>$/kWh</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
   <si>
     <t>BSfVBP BAU Subsidy for Vehicle Battery Production</t>
   </si>
   <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>In the EU only very specific projects receive funding (e.g. via Projects of Common Interest) but there is no general financial support for any battery production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That is why no financial support is used here. </t>
-  </si>
-  <si>
-    <t>$/kWh</t>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>2022 to 2012 USD</t>
+  </si>
+  <si>
+    <t>In the US, the Inflation Reduction Act includes a credit of $35/kWh for battery cells and $10/kWh for assembly for onroad vehicle</t>
+  </si>
+  <si>
+    <t>batteries.</t>
+  </si>
+  <si>
+    <t>United States Congress</t>
+  </si>
+  <si>
+    <t>H.R. 5376 - Inflation Reduction Act of 2022</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/house-bill/5376/text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +118,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,48 +430,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="101.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -481,15 +504,15 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -582,9 +605,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -593,34 +616,44 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>45*About!$A$12</f>
+        <v>35.325000000000003</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -680,259 +713,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F78047-56C4-4145-BE78-58B89A2E831D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90CB730-96E0-436E-BD64-7F6A977FFC04}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9C1DF3-B8A0-49B2-B14F-BDA1627008AF}"/>
 </file>